--- a/importance_scores/importance_scores_yeast.xlsx
+++ b/importance_scores/importance_scores_yeast.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>features</t>
   </si>
   <si>
-    <t>PFBI FuzzyCMeans</t>
+    <t>PBFI FuzzyCMeans</t>
   </si>
   <si>
     <t>SHAP FuzzyCMeans</t>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>SHAP KMeans</t>
-  </si>
-  <si>
-    <t>PFBI Spectral</t>
-  </si>
-  <si>
-    <t>SHAP Spectral</t>
   </si>
   <si>
     <t>F1</t>
@@ -416,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,171 +432,165 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0.3412963798131087</v>
       </c>
       <c r="D2">
-        <v>0.1611251882404068</v>
+        <v>0.1603768095397169</v>
       </c>
       <c r="E2">
-        <v>0.1680164620647702</v>
+        <v>0.1680164620647701</v>
       </c>
       <c r="F2">
-        <v>0.671697747400835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.6483806097452851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0.2973019209543594</v>
       </c>
       <c r="D3">
-        <v>0.1335414416351838</v>
+        <v>0.1320088600720222</v>
       </c>
       <c r="E3">
         <v>0.1583991435425995</v>
       </c>
       <c r="F3">
-        <v>0.6036553812090816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.6133409741992647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0.08392776661403216</v>
       </c>
       <c r="D4">
-        <v>0.03627807626144163</v>
+        <v>0.03720407318894026</v>
       </c>
       <c r="E4">
         <v>0.1099470713577783</v>
       </c>
       <c r="F4">
-        <v>0.2474407778205643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.2412901188166887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0.2047827158238427</v>
       </c>
       <c r="D5">
-        <v>0.1189356382035886</v>
+        <v>0.120529983763256</v>
       </c>
       <c r="E5">
         <v>0.1568709735091049</v>
       </c>
       <c r="F5">
-        <v>0.7590484148376415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.7376063033284389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0.003988130088992871</v>
       </c>
       <c r="D6">
-        <v>0.002421403594521386</v>
+        <v>0.003185558386028501</v>
       </c>
       <c r="E6">
         <v>0.2393574501210531</v>
       </c>
       <c r="F6">
-        <v>0.009818819792072086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.01539696652195343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0.004934626920428175</v>
       </c>
       <c r="D7">
-        <v>0.003003698897460558</v>
+        <v>0.003695989861079327</v>
       </c>
       <c r="E7">
         <v>0.01212089925776648</v>
       </c>
       <c r="F7">
-        <v>0.01156237004235235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.0147560782691708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0.01544538926511839</v>
       </c>
       <c r="D8">
-        <v>0.015676581290782</v>
+        <v>0.01460374555309198</v>
       </c>
       <c r="E8">
         <v>0.05854679042028265</v>
       </c>
       <c r="F8">
-        <v>0.1331432261583839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.1402849623295332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>0.04832307052011747</v>
       </c>
       <c r="D9">
-        <v>0.02430187962195186</v>
+        <v>0.02278036876531388</v>
       </c>
       <c r="E9">
         <v>0.09674120972664499</v>
       </c>
       <c r="F9">
-        <v>0.565869455140547</v>
+        <v>0.5801043328382579</v>
       </c>
     </row>
   </sheetData>
